--- a/clients.xlsx
+++ b/clients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a875766306f9c0ef/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{1FBD5E72-F03A-432A-8416-C8F36938A673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87333C3B-8A9D-4ACB-B2ED-8739AD34B3F0}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{1FBD5E72-F03A-432A-8416-C8F36938A673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5717BD80-AC91-4CC7-B8D4-3BADE5908855}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="محسن" sheetId="5" r:id="rId1"/>
@@ -2130,7 +2130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2156,6 +2156,24 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2262,15 +2280,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2579,7 +2588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EE0760-A8A8-40BA-875D-C027AB0C1D15}">
   <dimension ref="H1:M118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
@@ -2614,13 +2623,13 @@
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="8:13" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="32"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="38"/>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="8:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -2884,13 +2893,13 @@
       </c>
     </row>
     <row r="17" spans="8:13" ht="20.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="23"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="29"/>
       <c r="M17" s="5">
         <v>14</v>
       </c>
@@ -3196,13 +3205,13 @@
       </c>
     </row>
     <row r="33" spans="8:13" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="H33" s="33" t="s">
+      <c r="H33" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="35"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="41"/>
       <c r="M33" s="5">
         <v>30</v>
       </c>
@@ -3728,13 +3737,13 @@
       </c>
     </row>
     <row r="62" spans="8:13" ht="24.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="H62" s="36" t="s">
+      <c r="H62" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="I62" s="37"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
-      <c r="L62" s="38"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="43"/>
+      <c r="K62" s="43"/>
+      <c r="L62" s="44"/>
       <c r="M62" s="5">
         <v>59</v>
       </c>
@@ -3940,13 +3949,13 @@
       </c>
     </row>
     <row r="73" spans="8:13" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="H73" s="24" t="s">
+      <c r="H73" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25"/>
-      <c r="K73" s="25"/>
-      <c r="L73" s="26"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="31"/>
+      <c r="L73" s="32"/>
       <c r="M73" s="5">
         <v>70</v>
       </c>
@@ -4312,13 +4321,13 @@
       </c>
     </row>
     <row r="92" spans="8:13" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="H92" s="27" t="s">
+      <c r="H92" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="I92" s="28"/>
-      <c r="J92" s="28"/>
-      <c r="K92" s="28"/>
-      <c r="L92" s="29"/>
+      <c r="I92" s="34"/>
+      <c r="J92" s="34"/>
+      <c r="K92" s="34"/>
+      <c r="L92" s="35"/>
       <c r="M92" s="5">
         <v>89</v>
       </c>
@@ -4843,7 +4852,7 @@
   <dimension ref="I1:M103"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="9" ySplit="3" topLeftCell="L100" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
@@ -4876,12 +4885,12 @@
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="9:13" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="44"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="50"/>
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -5157,12 +5166,12 @@
       </c>
     </row>
     <row r="20" spans="9:13" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="I20" s="45" t="s">
+      <c r="I20" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="47"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="53"/>
       <c r="M20" s="3"/>
     </row>
     <row r="21" spans="9:13" ht="19" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -5404,12 +5413,12 @@
       </c>
     </row>
     <row r="35" spans="9:13" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="I35" s="48" t="s">
+      <c r="I35" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="50"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="56"/>
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -5719,12 +5728,12 @@
       </c>
     </row>
     <row r="54" spans="9:13" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="I54" s="51" t="s">
+      <c r="I54" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="53"/>
+      <c r="J54" s="58"/>
+      <c r="K54" s="58"/>
+      <c r="L54" s="59"/>
       <c r="M54" s="3"/>
     </row>
     <row r="55" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -6000,12 +6009,12 @@
       </c>
     </row>
     <row r="71" spans="9:13" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="I71" s="54" t="s">
+      <c r="I71" s="60" t="s">
         <v>202</v>
       </c>
-      <c r="J71" s="55"/>
-      <c r="K71" s="55"/>
-      <c r="L71" s="56"/>
+      <c r="J71" s="61"/>
+      <c r="K71" s="61"/>
+      <c r="L71" s="62"/>
       <c r="M71" s="3"/>
     </row>
     <row r="72" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -6281,12 +6290,12 @@
       </c>
     </row>
     <row r="88" spans="9:13" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="I88" s="39" t="s">
+      <c r="I88" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="J88" s="40"/>
-      <c r="K88" s="40"/>
-      <c r="L88" s="41"/>
+      <c r="J88" s="46"/>
+      <c r="K88" s="46"/>
+      <c r="L88" s="47"/>
       <c r="M88" s="3"/>
     </row>
     <row r="89" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -6547,2531 +6556,2527 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968E96F6-A631-4079-877B-2AE4DFBD0F22}">
-  <dimension ref="J1:N150"/>
+  <dimension ref="I1:N150"/>
   <sheetViews>
-    <sheetView topLeftCell="C139" workbookViewId="0">
-      <selection activeCell="M151" sqref="M151"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.36328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.81640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="10:14" ht="19" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="10:14" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="9:13" ht="19" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="9:13" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I2" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="J2" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="M2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="N2" s="20"/>
-    </row>
-    <row r="3" spans="10:14" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="J3" s="42" t="s">
+      <c r="M2" s="20"/>
+    </row>
+    <row r="3" spans="9:13" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I3" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="20"/>
-    </row>
-    <row r="4" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="20"/>
+    </row>
+    <row r="4" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I4" s="6" t="s">
+        <v>316</v>
+      </c>
       <c r="J4" s="6" t="s">
-        <v>316</v>
+        <v>9</v>
       </c>
       <c r="K4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="M4" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I5" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="N4" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J5" s="6" t="s">
-        <v>345</v>
-      </c>
       <c r="K5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="M5" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I6" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="M6" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I7" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="M7" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="9:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I8" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="M8" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I9" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="M9" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I10" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="M10" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I11" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="M11" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I12" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="M12" s="20">
         <v>9</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="N5" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J6" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="K6" s="6" t="s">
+    </row>
+    <row r="13" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I13" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="M13" s="20">
         <v>10</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="N6" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J7" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="N7" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="10:14" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J8" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="N8" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J9" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="K9" s="6" t="s">
+    </row>
+    <row r="14" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I14" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="N9" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J10" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="K10" s="6" t="s">
+      <c r="K14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="M14" s="20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I15" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="N10" s="20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J11" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="K11" s="6" t="s">
+      <c r="K15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="M15" s="20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="N11" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J12" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="K12" s="6" t="s">
+      <c r="K16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="M16" s="20">
         <v>13</v>
       </c>
-      <c r="L12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="N12" s="20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J13" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="K13" s="6" t="s">
+    </row>
+    <row r="17" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I17" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="N13" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J14" s="6" t="s">
+      <c r="K17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="M17" s="20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I18" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="J18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="N14" s="20">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J15" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="K15" s="6" t="s">
+      <c r="K18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="M18" s="20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I19" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="N15" s="20">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" s="6" t="s">
+      <c r="K19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="M19" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="N16" s="20">
+      <c r="K20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="M20" s="20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I21" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="J21" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J17" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="K17" s="6" t="s">
+      <c r="K21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="M21" s="20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="N17" s="20">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J18" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="N18" s="20">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J19" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="N19" s="20">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="N20" s="20">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J21" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="N21" s="20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="J22" s="6" t="s">
         <v>13</v>
       </c>
       <c r="K22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="M22" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="N22" s="20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J23" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="K23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="M23" s="20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="N23" s="20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J24" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="K24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="M24" s="20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I25" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="J25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="N24" s="20">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J25" s="6" t="s">
-        <v>145</v>
-      </c>
       <c r="K25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="M25" s="20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I26" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="J26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="N25" s="20">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J26" s="6" t="s">
-        <v>377</v>
-      </c>
       <c r="K26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="M26" s="20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="N26" s="20">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="J27" s="6" t="s">
         <v>13</v>
       </c>
       <c r="K27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="M27" s="20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I28" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="J28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="N27" s="20">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J28" s="6" t="s">
-        <v>371</v>
-      </c>
       <c r="K28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="M28" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J29" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="N28" s="20">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J29" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="K29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="M29" s="20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I30" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J30" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="N29" s="20">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J30" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="K30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="M30" s="20">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I31" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="J31" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="N30" s="20">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J31" s="6" t="s">
-        <v>381</v>
-      </c>
       <c r="K31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="M31" s="20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I32" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="J32" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="N31" s="20">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J32" s="6" t="s">
-        <v>145</v>
-      </c>
       <c r="K32" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M32" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="N32" s="20">
+      <c r="M32" s="20">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I33" s="6" t="s">
+        <v>331</v>
+      </c>
       <c r="J33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="M33" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I34" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="K33" s="6" t="s">
+      <c r="J34" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L33" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="N33" s="20">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J34" s="6" t="s">
+      <c r="K34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="M34" s="20">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I35" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="K34" s="6" t="s">
+      <c r="J35" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L34" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="N34" s="20">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J35" s="6" t="s">
-        <v>331</v>
-      </c>
       <c r="K35" s="6" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M35" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="N35" s="20">
+      <c r="M35" s="20">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I36" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="J36" s="6" t="s">
         <v>29</v>
       </c>
       <c r="K36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="M36" s="20">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I37" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="J37" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L36" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M36" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="N36" s="20">
+      <c r="K37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="M37" s="20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I38" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="M38" s="20">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I39" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="M39" s="20">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I40" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="M40" s="20">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I41" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="M41" s="20">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I42" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="M42" s="20">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I43" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M43" s="20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I44" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="M44" s="20">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I45" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="M45" s="20">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I46" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M46" s="20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I47" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="M47" s="20">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I48" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="M48" s="20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I49" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="M49" s="20">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I50" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M50" s="20">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I51" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J37" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="N37" s="20">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J38" s="6" t="s">
+      <c r="J51" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="M51" s="20">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I52" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="M52" s="20">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="9:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I53" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="M53" s="20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I54" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="M54" s="20">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I55" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="M55" s="20">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I56" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="M56" s="20">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I57" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="M57" s="20">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I58" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="M58" s="20">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="9:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I59" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="M59" s="20">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="9:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I60" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="M60" s="20">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="9:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I61" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="M61" s="20">
         <v>58</v>
       </c>
-      <c r="K38" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M38" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="N38" s="20">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J39" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M39" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="N39" s="20">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J40" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M40" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="N40" s="20">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J41" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="N41" s="20">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J42" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L42" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M42" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="N42" s="20">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J43" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M43" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N43" s="20">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J44" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L44" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M44" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="N44" s="20">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J45" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L45" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="N45" s="20">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J46" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M46" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="N46" s="20">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J47" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="N47" s="20">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J48" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M48" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="N48" s="20">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J49" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L49" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="N49" s="20">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J50" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L50" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M50" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="N50" s="20">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J51" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L51" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="N51" s="20">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J52" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="K52" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L52" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M52" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="N52" s="20">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="10:14" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J53" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="K53" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L53" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M53" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="N53" s="20">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J54" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K54" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L54" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M54" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="N54" s="20">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J55" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L55" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M55" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="N55" s="20">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J56" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L56" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M56" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="N56" s="20">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J57" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="K57" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L57" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M57" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="N57" s="20">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J58" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="K58" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="L58" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M58" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="N58" s="20">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="10:14" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J59" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="K59" s="6" t="s">
+    </row>
+    <row r="62" spans="9:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I62" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="J62" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="L59" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M59" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="N59" s="20">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="10:14" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J60" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K60" s="6" t="s">
+      <c r="K62" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="M62" s="20">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="9:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I63" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="L60" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M60" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="N60" s="20">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="10:14" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J61" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="K61" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L61" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M61" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="N61" s="20">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="10:14" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J62" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="K62" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L62" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M62" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="N62" s="20">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="10:14" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="J63" s="6" t="s">
         <v>74</v>
       </c>
       <c r="K63" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="M63" s="20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="9:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I64" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="J64" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="L63" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M63" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="N63" s="20">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="10:14" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J64" s="6" t="s">
-        <v>259</v>
-      </c>
       <c r="K64" s="6" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M64" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="N64" s="20">
+      <c r="M64" s="20">
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I65" s="6" t="s">
+        <v>420</v>
+      </c>
       <c r="J65" s="6" t="s">
-        <v>420</v>
+        <v>8</v>
       </c>
       <c r="K65" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="M65" s="20">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I66" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="J66" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L65" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M65" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="N65" s="20">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J66" s="6" t="s">
-        <v>425</v>
-      </c>
       <c r="K66" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="M66" s="20">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I67" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="J67" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L66" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M66" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="N66" s="20">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J67" s="6" t="s">
-        <v>426</v>
-      </c>
       <c r="K67" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M67" s="20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I68" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="J68" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L67" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M67" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N67" s="20">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J68" s="6" t="s">
-        <v>428</v>
-      </c>
       <c r="K68" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="M68" s="20">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I69" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J69" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L68" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M68" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="N68" s="20">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J69" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="K69" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="M69" s="20">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I70" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L69" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M69" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="N69" s="20">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="J70" s="6" t="s">
         <v>8</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M70" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="N70" s="20">
+      <c r="M70" s="20">
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="10:14" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="J71" s="57" t="s">
+    <row r="71" spans="9:13" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I71" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="K71" s="58"/>
-      <c r="L71" s="58"/>
-      <c r="M71" s="59"/>
-      <c r="N71" s="20"/>
-    </row>
-    <row r="72" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="20"/>
+    </row>
+    <row r="72" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I72" s="17" t="s">
+        <v>430</v>
+      </c>
       <c r="J72" s="17" t="s">
-        <v>430</v>
+        <v>106</v>
       </c>
       <c r="K72" s="17" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="L72" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M72" s="17" t="s">
         <v>429</v>
       </c>
-      <c r="N72" s="20">
+      <c r="M72" s="20">
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I73" s="17" t="s">
+        <v>285</v>
+      </c>
       <c r="J73" s="17" t="s">
-        <v>285</v>
+        <v>64</v>
       </c>
       <c r="K73" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L73" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="M73" s="20">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I74" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="J74" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="L73" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M73" s="17" t="s">
-        <v>431</v>
-      </c>
-      <c r="N73" s="20">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="74" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J74" s="17" t="s">
-        <v>125</v>
-      </c>
       <c r="K74" s="17" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="L74" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M74" s="17" t="s">
         <v>432</v>
       </c>
-      <c r="N74" s="20">
+      <c r="M74" s="20">
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="75" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I75" s="17" t="s">
+        <v>433</v>
+      </c>
       <c r="J75" s="17" t="s">
-        <v>433</v>
+        <v>75</v>
       </c>
       <c r="K75" s="17" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="L75" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M75" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="N75" s="20">
+      <c r="M75" s="20">
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="76" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I76" s="17" t="s">
+        <v>435</v>
+      </c>
       <c r="J76" s="17" t="s">
-        <v>435</v>
+        <v>86</v>
       </c>
       <c r="K76" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L76" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="M76" s="20">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I77" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="J77" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="L76" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M76" s="17" t="s">
-        <v>434</v>
-      </c>
-      <c r="N76" s="20">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="77" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J77" s="17" t="s">
-        <v>437</v>
-      </c>
       <c r="K77" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L77" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="M77" s="20">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I78" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="L77" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M77" s="17" t="s">
-        <v>436</v>
-      </c>
-      <c r="N77" s="20">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="78" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="J78" s="17" t="s">
         <v>86</v>
       </c>
       <c r="K78" s="17" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="L78" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M78" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="N78" s="20">
+      <c r="M78" s="20">
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="79" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I79" s="17" t="s">
+        <v>371</v>
+      </c>
       <c r="J79" s="17" t="s">
-        <v>371</v>
+        <v>87</v>
       </c>
       <c r="K79" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L79" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="M79" s="20">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I80" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="J80" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="L79" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M79" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="N79" s="20">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="80" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J80" s="17" t="s">
-        <v>440</v>
-      </c>
       <c r="K80" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L80" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="M80" s="20">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I81" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="L80" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M80" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="N80" s="20">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="81" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="J81" s="17" t="s">
         <v>87</v>
       </c>
       <c r="K81" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L81" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="M81" s="20">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="9:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I82" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="L81" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M81" s="17" t="s">
+      <c r="J82" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="K82" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L82" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="M82" s="20">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I83" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="J83" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="K83" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L83" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="M83" s="20">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="9:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I84" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J84" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="K84" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L84" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="M84" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="9:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I85" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="J85" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="K85" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L85" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="M85" s="20">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="9:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I86" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="J86" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="K86" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L86" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="M86" s="20">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="9:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I87" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="J87" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="K87" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L87" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="M87" s="20">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="9:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I88" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="J88" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="K88" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L88" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="M88" s="20">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="9:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I89" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="J89" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="K89" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L89" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="M89" s="20">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I90" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J90" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="K90" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L90" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="M90" s="20">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I91" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="J91" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="K91" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L91" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="M91" s="20">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I92" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="J92" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="K92" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L92" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="M92" s="20">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I93" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="J93" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="K93" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L93" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="M93" s="20">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I94" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="J94" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="K94" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L94" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="M94" s="20">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I95" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="J95" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="K95" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L95" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="M95" s="20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I96" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="J96" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="K96" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L96" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="M96" s="20">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I97" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="J97" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="K97" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L97" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="M97" s="20">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I98" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="J98" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="K98" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L98" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="M98" s="20">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I99" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="J99" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="K99" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L99" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="M99" s="20">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I100" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="J100" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="K100" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L100" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="M100" s="20">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I101" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="J101" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="K101" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L101" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="M101" s="20">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I102" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="J102" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="K102" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L102" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="M102" s="20">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="103" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I103" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J103" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="K103" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L103" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="M103" s="20">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I104" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J104" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="K104" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L104" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="N81" s="20">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82" spans="10:14" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J82" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="K82" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="L82" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M82" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="N82" s="20">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="83" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J83" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="K83" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="L83" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M83" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="N83" s="20">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" spans="10:14" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J84" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="K84" s="17" t="s">
+      <c r="M104" s="20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I105" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J105" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="L84" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M84" s="17" t="s">
-        <v>443</v>
-      </c>
-      <c r="N84" s="20">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="85" spans="10:14" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J85" s="17" t="s">
-        <v>444</v>
-      </c>
-      <c r="K85" s="17" t="s">
+      <c r="K105" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L105" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="M105" s="20">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="106" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I106" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J106" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="L85" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M85" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="N85" s="20">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="86" spans="10:14" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J86" s="17" t="s">
-        <v>447</v>
-      </c>
-      <c r="K86" s="17" t="s">
+      <c r="K106" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L106" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="M106" s="20">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I107" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J107" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="L86" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M86" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="N86" s="20">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="87" spans="10:14" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J87" s="17" t="s">
-        <v>449</v>
-      </c>
-      <c r="K87" s="17" t="s">
+      <c r="K107" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L107" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="M107" s="20">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="108" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I108" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J108" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="L87" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M87" s="17" t="s">
-        <v>448</v>
-      </c>
-      <c r="N87" s="20">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="88" spans="10:14" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J88" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="K88" s="17" t="s">
+      <c r="K108" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L108" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="M108" s="20">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="109" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I109" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J109" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="L88" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M88" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="N88" s="20">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="89" spans="10:14" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J89" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="K89" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="L89" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M89" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="N89" s="20">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="90" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J90" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="K90" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="L90" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M90" s="17" t="s">
-        <v>453</v>
-      </c>
-      <c r="N90" s="20">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="91" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J91" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="K91" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="L91" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M91" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="N91" s="20">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="92" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J92" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="K92" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="L92" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M92" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="N92" s="20">
+      <c r="K109" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L109" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="M109" s="20">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="110" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I110" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J110" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="K110" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L110" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="M110" s="20">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="111" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I111" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J111" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="K111" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L111" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="M111" s="20">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I112" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="J112" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="K112" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L112" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="M112" s="20">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="113" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I113" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="J113" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K113" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L113" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="M113" s="20">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="114" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I114" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="J114" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K114" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L114" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="M114" s="20">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="115" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I115" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J115" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K115" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L115" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="M115" s="20">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="116" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I116" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J116" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="K116" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L116" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="M116" s="20">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="117" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I117" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="J117" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="K117" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L117" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="M117" s="20">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="118" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I118" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J118" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K118" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L118" s="17" t="s">
+        <v>481</v>
+      </c>
+      <c r="M118" s="20">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="119" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I119" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J119" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K119" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L119" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="M119" s="20">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="120" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I120" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="J120" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K120" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L120" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="M120" s="20">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="121" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I121" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="J121" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K121" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L121" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="M121" s="20">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="122" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I122" s="17" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="93" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J93" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="K93" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="L93" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M93" s="17" t="s">
-        <v>459</v>
-      </c>
-      <c r="N93" s="20">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="94" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J94" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="K94" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="L94" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M94" s="17" t="s">
-        <v>460</v>
-      </c>
-      <c r="N94" s="20">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="95" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J95" s="17" t="s">
-        <v>462</v>
-      </c>
-      <c r="K95" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="L95" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M95" s="17" t="s">
-        <v>461</v>
-      </c>
-      <c r="N95" s="20">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="96" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J96" s="17" t="s">
-        <v>464</v>
-      </c>
-      <c r="K96" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="L96" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M96" s="17" t="s">
-        <v>463</v>
-      </c>
-      <c r="N96" s="20">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="97" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J97" s="17" t="s">
-        <v>466</v>
-      </c>
-      <c r="K97" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="L97" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M97" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="N97" s="20">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="98" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J98" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="K98" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="L98" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M98" s="17" t="s">
-        <v>467</v>
-      </c>
-      <c r="N98" s="20">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="99" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J99" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="K99" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="L99" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M99" s="17" t="s">
-        <v>468</v>
-      </c>
-      <c r="N99" s="20">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="100" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J100" s="17" t="s">
-        <v>444</v>
-      </c>
-      <c r="K100" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="L100" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M100" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="N100" s="20">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="101" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J101" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="K101" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="L101" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M101" s="17" t="s">
-        <v>471</v>
-      </c>
-      <c r="N101" s="20">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="102" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J102" s="17" t="s">
-        <v>474</v>
-      </c>
-      <c r="K102" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="L102" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M102" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="N102" s="20">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="103" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J103" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="K103" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="L103" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M103" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="N103" s="20">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="104" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J104" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="K104" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="L104" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M104" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="N104" s="20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J105" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="K105" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="L105" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M105" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="N105" s="20">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="106" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J106" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="K106" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="L106" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M106" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="N106" s="20">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="107" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J107" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="K107" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="L107" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M107" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="N107" s="20">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="108" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J108" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="K108" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="L108" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M108" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="N108" s="20">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="109" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J109" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="K109" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="L109" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M109" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="N109" s="20">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="110" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J110" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="K110" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="L110" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M110" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="N110" s="20">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="111" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J111" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="K111" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="L111" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M111" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="N111" s="20">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="112" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J112" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="K112" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="L112" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M112" s="17" t="s">
-        <v>475</v>
-      </c>
-      <c r="N112" s="20">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="113" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J113" s="17" t="s">
-        <v>476</v>
-      </c>
-      <c r="K113" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L113" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M113" s="17" t="s">
-        <v>477</v>
-      </c>
-      <c r="N113" s="20">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="114" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J114" s="17" t="s">
-        <v>476</v>
-      </c>
-      <c r="K114" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L114" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M114" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="N114" s="20">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="115" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J115" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="K115" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L115" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M115" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="N115" s="20">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="116" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J116" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="K116" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="L116" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M116" s="17" t="s">
-        <v>478</v>
-      </c>
-      <c r="N116" s="20">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="117" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J117" s="17" t="s">
-        <v>480</v>
-      </c>
-      <c r="K117" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="L117" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M117" s="17" t="s">
-        <v>479</v>
-      </c>
-      <c r="N117" s="20">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="118" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J118" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="K118" s="17" t="s">
+      <c r="J122" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="L118" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M118" s="17" t="s">
-        <v>481</v>
-      </c>
-      <c r="N118" s="20">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="119" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J119" s="17" t="s">
+      <c r="K122" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L122" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="M122" s="20">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="123" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I123" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="J123" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K123" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L123" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="M123" s="20">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="124" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I124" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="K119" s="17" t="s">
+      <c r="J124" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="L119" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M119" s="17" t="s">
-        <v>482</v>
-      </c>
-      <c r="N119" s="20">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="120" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J120" s="17" t="s">
-        <v>484</v>
-      </c>
-      <c r="K120" s="17" t="s">
+      <c r="K124" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L124" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="M124" s="20">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="125" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I125" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J125" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="L120" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M120" s="17" t="s">
-        <v>483</v>
-      </c>
-      <c r="N120" s="20">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="121" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J121" s="17" t="s">
-        <v>486</v>
-      </c>
-      <c r="K121" s="17" t="s">
+      <c r="K125" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L125" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="M125" s="20">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="126" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I126" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J126" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="L121" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M121" s="17" t="s">
-        <v>485</v>
-      </c>
-      <c r="N121" s="20">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="122" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J122" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="K122" s="17" t="s">
+      <c r="K126" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L126" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="M126" s="20">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="127" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I127" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="J127" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="L122" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M122" s="17" t="s">
-        <v>487</v>
-      </c>
-      <c r="N122" s="20">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="123" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J123" s="17" t="s">
-        <v>489</v>
-      </c>
-      <c r="K123" s="17" t="s">
+      <c r="K127" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L127" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="M127" s="20">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="128" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I128" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J128" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="L123" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M123" s="17" t="s">
-        <v>488</v>
-      </c>
-      <c r="N123" s="20">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="124" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J124" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="K124" s="17" t="s">
+      <c r="K128" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L128" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="M128" s="20">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="129" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I129" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="L124" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M124" s="17" t="s">
-        <v>490</v>
-      </c>
-      <c r="N124" s="20">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="125" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J125" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="K125" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L125" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M125" s="17" t="s">
-        <v>491</v>
-      </c>
-      <c r="N125" s="20">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="126" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J126" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="K126" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L126" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M126" s="17" t="s">
-        <v>492</v>
-      </c>
-      <c r="N126" s="20">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="127" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J127" s="17" t="s">
-        <v>493</v>
-      </c>
-      <c r="K127" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L127" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M127" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="N127" s="20">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="128" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J128" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="K128" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L128" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M128" s="17" t="s">
-        <v>494</v>
-      </c>
-      <c r="N128" s="20">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="129" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="J129" s="17" t="s">
         <v>30</v>
       </c>
       <c r="K129" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L129" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="M129" s="20">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="130" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I130" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="L129" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M129" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="N129" s="20">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="130" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="J130" s="17" t="s">
         <v>30</v>
       </c>
       <c r="K130" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L130" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="M130" s="20">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="131" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I131" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="L130" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M130" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="N130" s="20">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="131" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="J131" s="17" t="s">
         <v>30</v>
       </c>
       <c r="K131" s="17" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L131" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M131" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="N131" s="20">
+      <c r="M131" s="20">
         <v>127</v>
       </c>
     </row>
-    <row r="132" spans="10:14" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="132" spans="9:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I132" s="17" t="s">
+        <v>496</v>
+      </c>
       <c r="J132" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="K132" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L132" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="M132" s="20">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="133" spans="9:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I133" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="K132" s="17" t="s">
+      <c r="J133" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="L132" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M132" s="17" t="s">
-        <v>495</v>
-      </c>
-      <c r="N132" s="20">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="133" spans="10:14" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J133" s="17" t="s">
-        <v>496</v>
-      </c>
       <c r="K133" s="17" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="L133" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M133" s="17" t="s">
         <v>497</v>
       </c>
-      <c r="N133" s="20">
+      <c r="M133" s="20">
         <v>129</v>
       </c>
     </row>
-    <row r="134" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="134" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I134" s="17" t="s">
+        <v>233</v>
+      </c>
       <c r="J134" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K134" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L134" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="M134" s="20">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I135" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J135" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K135" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L135" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="M135" s="20">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="136" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I136" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="J136" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K136" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L136" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="M136" s="20">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="137" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I137" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="J137" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K137" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L137" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="M137" s="20">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="138" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I138" s="17" t="s">
+        <v>502</v>
+      </c>
+      <c r="J138" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K138" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L138" s="17" t="s">
+        <v>501</v>
+      </c>
+      <c r="M138" s="20">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="139" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I139" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J139" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K139" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L139" s="17" t="s">
+        <v>503</v>
+      </c>
+      <c r="M139" s="20">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="140" spans="9:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I140" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J140" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K140" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L140" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="M140" s="20">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="141" spans="9:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I141" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J141" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K141" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L141" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="M141" s="20">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="142" spans="9:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I142" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="J142" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K142" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L142" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="M142" s="20">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="143" spans="9:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I143" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="J143" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K143" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L143" s="17" t="s">
+        <v>506</v>
+      </c>
+      <c r="M143" s="20">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="144" spans="9:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I144" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="J144" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K144" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L144" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="M144" s="20">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="145" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I145" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="J145" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="K145" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L145" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="M145" s="20">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="146" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I146" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="J146" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K146" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L146" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="M146" s="20">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="147" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I147" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J147" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K147" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L147" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="M147" s="20">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="148" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I148" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="K134" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="L134" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M134" s="17" t="s">
-        <v>498</v>
-      </c>
-      <c r="N134" s="20">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="135" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J135" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="K135" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="L135" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M135" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="N135" s="20">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="136" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J136" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="K136" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="L136" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M136" s="17" t="s">
-        <v>499</v>
-      </c>
-      <c r="N136" s="20">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="137" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J137" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="K137" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="L137" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M137" s="17" t="s">
-        <v>500</v>
-      </c>
-      <c r="N137" s="20">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="138" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J138" s="17" t="s">
-        <v>502</v>
-      </c>
-      <c r="K138" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="L138" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M138" s="17" t="s">
-        <v>501</v>
-      </c>
-      <c r="N138" s="20">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="139" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J139" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="K139" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="L139" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M139" s="17" t="s">
-        <v>503</v>
-      </c>
-      <c r="N139" s="20">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="140" spans="10:14" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J140" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="K140" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="L140" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M140" s="17" t="s">
-        <v>504</v>
-      </c>
-      <c r="N140" s="20">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="141" spans="10:14" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J141" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="K141" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="L141" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M141" s="17" t="s">
-        <v>498</v>
-      </c>
-      <c r="N141" s="20">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="142" spans="10:14" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J142" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="K142" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="L142" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M142" s="17" t="s">
-        <v>505</v>
-      </c>
-      <c r="N142" s="20">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="143" spans="10:14" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J143" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="K143" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="L143" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M143" s="17" t="s">
-        <v>506</v>
-      </c>
-      <c r="N143" s="20">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="144" spans="10:14" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J144" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="K144" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="L144" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M144" s="17" t="s">
-        <v>507</v>
-      </c>
-      <c r="N144" s="20">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="145" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J145" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="K145" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="L145" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M145" s="17" t="s">
-        <v>508</v>
-      </c>
-      <c r="N145" s="20">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="146" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J146" s="17" t="s">
-        <v>510</v>
-      </c>
-      <c r="K146" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="L146" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M146" s="17" t="s">
-        <v>509</v>
-      </c>
-      <c r="N146" s="20">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="147" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J147" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="K147" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="L147" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M147" s="17" t="s">
-        <v>511</v>
-      </c>
-      <c r="N147" s="20">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="148" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="J148" s="17" t="s">
-        <v>233</v>
+        <v>51</v>
       </c>
       <c r="K148" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L148" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="M148" s="20">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="149" spans="9:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I149" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="L148" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M148" s="17" t="s">
-        <v>512</v>
-      </c>
-      <c r="N148" s="20">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="149" spans="10:14" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="J149" s="17" t="s">
         <v>51</v>
       </c>
       <c r="K149" s="17" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="L149" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M149" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="N149" s="20">
+      <c r="M149" s="20">
         <v>145</v>
       </c>
     </row>
-    <row r="150" spans="10:14" ht="19" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="150" spans="9:13" ht="19" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J5:N150">
     <sortCondition ref="K150"/>
   </sortState>
-  <mergeCells count="2">
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J71:M71"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
